--- a/va_facility_data_2025-02-20/Globe VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Globe%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Globe VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Globe%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R770a6b9932f642ebb2b28c27a07ca55f"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7e5dd81d8ee740bcbc6b384d240b2028"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb2c97c5fbfa84e5d96e47004a2046a30"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R45799a8a9fc448fe8403ec76cbbf1f53"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R19dbadf9b050412c91a7e3121045f12a"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R3af2c123fafc4812984b0e19deaa221f"/>
   </x:sheets>
 </x:workbook>
 </file>
